--- a/ipa_1_2/myUtils/sham_questions.xlsx
+++ b/ipa_1_2/myUtils/sham_questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F7737C-A098-46C1-B78E-A565BB4E5433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5136A459-73F8-49E0-BBA3-21F84CD503A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>feature</t>
   </si>
@@ -45,9 +45,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>question_heb</t>
-  </si>
-  <si>
     <t>question_heb_max_min_ideal</t>
   </si>
   <si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t>במידה מועטה</t>
+  </si>
+  <si>
+    <t>question_heb_male</t>
+  </si>
+  <si>
+    <t>question_heb_female</t>
   </si>
 </sst>
 </file>
@@ -396,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,10 +411,10 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -428,56 +431,65 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_1_2/myUtils/sham_questions.xlsx
+++ b/ipa_1_2/myUtils/sham_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5136A459-73F8-49E0-BBA3-21F84CD503A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D170F-B381-4886-BD1B-12809DEBB6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>feature</t>
   </si>
@@ -60,9 +60,6 @@
     <t>עד כמה אוניברסיטת חיפה מוכרת לך?</t>
   </si>
   <si>
-    <t>עד כמה יש לך ניסיון בניסויים באוניברסיטה?</t>
-  </si>
-  <si>
     <t>במידה רבה</t>
   </si>
   <si>
@@ -73,6 +70,18 @@
   </si>
   <si>
     <t>question_heb_female</t>
+  </si>
+  <si>
+    <t>עד כמה אתה מעדיף קפה או תה?</t>
+  </si>
+  <si>
+    <t>עד כמה את מעדיפה קפה או תה?</t>
+  </si>
+  <si>
+    <t>קפה</t>
+  </si>
+  <si>
+    <t>תה</t>
   </si>
 </sst>
 </file>
@@ -402,7 +411,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,10 +440,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -451,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -477,16 +486,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
